--- a/resources/experiment 1/metrics/MAPE/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Macroalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01787332384063829</v>
+        <v>0.01736209444920342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01787332384063829</v>
+        <v>0.01723184298777672</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01787332384063829</v>
+        <v>0.01785771431170191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01673576143443513</v>
+        <v>0.01826698805591143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01673576143443513</v>
+        <v>0.01749375633819593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01673576143443513</v>
+        <v>0.01799925038412348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04801098925492419</v>
+        <v>0.01647174495062777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04801098925492419</v>
+        <v>0.01575900815701209</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04801098925492419</v>
+        <v>0.01617123989199947</v>
       </c>
     </row>
   </sheetData>
